--- a/anhei2/sell.xlsx
+++ b/anhei2/sell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="sell" sheetId="1" r:id="rId1"/>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,15 +456,24 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -527,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/anhei2/sell.xlsx
+++ b/anhei2/sell.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sell" sheetId="1" r:id="rId1"/>
-    <sheet name="回收" sheetId="2" r:id="rId2"/>
+    <sheet name="sell" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="回收" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>k6boss key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +84,198 @@
   </si>
   <si>
     <t>25#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼球1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40基德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7mfsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形gc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸟弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100毒sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20lifesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓gc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒gc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄手套武学2ias20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨弓15ed2准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44抗性神圣轻圆盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影子gc 23life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒骨gc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无形绵羊毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无形精英胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15ed绵羊毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94级gc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95级gc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eth灰幕寿衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eth狂战士斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eth锐利之斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pal攻击灵气gc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗gc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-huishou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15ed 6s 战枪 eth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25soj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5soj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10soj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50soj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10soj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30soj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15soj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20soj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30soj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700soj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100soj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5soj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -481,14 +674,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
@@ -533,6 +718,360 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>

--- a/anhei2/sell.xlsx
+++ b/anhei2/sell.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>k6boss key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,15 +267,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>700soj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100soj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4.5soj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>750soj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>750soj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60soj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,7 +730,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1012,7 +1020,7 @@
         <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1020,7 +1028,7 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1028,7 +1036,7 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1039,7 +1047,7 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1058,7 +1066,7 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38">
         <v>6</v>

--- a/anhei2/sell.xlsx
+++ b/anhei2/sell.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sell" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="回收" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>k6boss key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,46 @@
   </si>
   <si>
     <t>60soj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eth15ed战枪6s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有形猛禽爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女族长标枪 有形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴巨魔巢穴盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chentuhuishou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -1081,26 +1121,125 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C2:C8)</f>
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <v>123123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>